--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2672.041626132734</v>
+        <v>2776.101216832522</v>
       </c>
       <c r="AB2" t="n">
-        <v>3656.005235031855</v>
+        <v>3798.384157812454</v>
       </c>
       <c r="AC2" t="n">
-        <v>3307.081226635852</v>
+        <v>3435.871704856338</v>
       </c>
       <c r="AD2" t="n">
-        <v>2672041.626132734</v>
+        <v>2776101.216832522</v>
       </c>
       <c r="AE2" t="n">
-        <v>3656005.235031855</v>
+        <v>3798384.157812454</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.978494841368934e-07</v>
+        <v>1.686914062434073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.30416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3307081.226635851</v>
+        <v>3435871.704856338</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>887.1230811850173</v>
+        <v>949.5246455579307</v>
       </c>
       <c r="AB3" t="n">
-        <v>1213.800936785525</v>
+        <v>1299.18151012327</v>
       </c>
       <c r="AC3" t="n">
-        <v>1097.957478959028</v>
+        <v>1175.189450209806</v>
       </c>
       <c r="AD3" t="n">
-        <v>887123.0811850174</v>
+        <v>949524.6455579307</v>
       </c>
       <c r="AE3" t="n">
-        <v>1213800.936785525</v>
+        <v>1299181.51012327</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.870530129474159e-06</v>
+        <v>3.162223992475101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.83194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1097957.478959028</v>
+        <v>1175189.450209806</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>656.7828580600815</v>
+        <v>698.4408843869558</v>
       </c>
       <c r="AB4" t="n">
-        <v>898.6392816125338</v>
+        <v>955.6376310553778</v>
       </c>
       <c r="AC4" t="n">
-        <v>812.8744098235859</v>
+        <v>864.432916793291</v>
       </c>
       <c r="AD4" t="n">
-        <v>656782.8580600815</v>
+        <v>698440.8843869558</v>
       </c>
       <c r="AE4" t="n">
-        <v>898639.2816125337</v>
+        <v>955637.6310553778</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.202854855331446e-06</v>
+        <v>3.724035430227267e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.197222222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>812874.4098235859</v>
+        <v>864432.916793291</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>559.1279378647399</v>
+        <v>611.1150180330725</v>
       </c>
       <c r="AB5" t="n">
-        <v>765.0235115702484</v>
+        <v>836.1545281646702</v>
       </c>
       <c r="AC5" t="n">
-        <v>692.0107413432253</v>
+        <v>756.3531135468844</v>
       </c>
       <c r="AD5" t="n">
-        <v>559127.9378647399</v>
+        <v>611115.0180330725</v>
       </c>
       <c r="AE5" t="n">
-        <v>765023.5115702484</v>
+        <v>836154.5281646702</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.355304082074582e-06</v>
+        <v>3.981758411988029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.602777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>692010.7413432252</v>
+        <v>756353.1135468844</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>549.1842893820254</v>
+        <v>590.9275670549204</v>
       </c>
       <c r="AB6" t="n">
-        <v>751.418173033388</v>
+        <v>808.5331671288814</v>
       </c>
       <c r="AC6" t="n">
-        <v>679.7038772211101</v>
+        <v>731.3678964415273</v>
       </c>
       <c r="AD6" t="n">
-        <v>549184.2893820255</v>
+        <v>590927.5670549204</v>
       </c>
       <c r="AE6" t="n">
-        <v>751418.173033388</v>
+        <v>808533.1671288813</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.375873786352843e-06</v>
+        <v>4.016532517661011e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.527777777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>679703.8772211102</v>
+        <v>731367.8964415273</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>551.4285389675339</v>
+        <v>593.1718166404288</v>
       </c>
       <c r="AB7" t="n">
-        <v>754.4888543255845</v>
+        <v>811.6038484210779</v>
       </c>
       <c r="AC7" t="n">
-        <v>682.4814970005079</v>
+        <v>734.1455162209248</v>
       </c>
       <c r="AD7" t="n">
-        <v>551428.5389675339</v>
+        <v>593171.8166404288</v>
       </c>
       <c r="AE7" t="n">
-        <v>754488.8543255845</v>
+        <v>811603.8484210779</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.376019670780348e-06</v>
+        <v>4.01677914252394e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.527777777777779</v>
       </c>
       <c r="AH7" t="n">
-        <v>682481.4970005079</v>
+        <v>734145.5162209248</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1592.912516216198</v>
+        <v>1683.556945101796</v>
       </c>
       <c r="AB2" t="n">
-        <v>2179.493179027503</v>
+        <v>2303.516885578749</v>
       </c>
       <c r="AC2" t="n">
-        <v>1971.485408959007</v>
+        <v>2083.672467025367</v>
       </c>
       <c r="AD2" t="n">
-        <v>1592912.516216198</v>
+        <v>1683556.945101796</v>
       </c>
       <c r="AE2" t="n">
-        <v>2179493.179027503</v>
+        <v>2303516.885578749</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.318396927505436e-06</v>
+        <v>2.283187943347254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.89861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1971485.408959007</v>
+        <v>2083672.467025367</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>667.7268465333793</v>
+        <v>718.1796857526799</v>
       </c>
       <c r="AB3" t="n">
-        <v>913.6133294563961</v>
+        <v>982.6451298984189</v>
       </c>
       <c r="AC3" t="n">
-        <v>826.4193555574381</v>
+        <v>888.8628578520147</v>
       </c>
       <c r="AD3" t="n">
-        <v>667726.8465333793</v>
+        <v>718179.6857526799</v>
       </c>
       <c r="AE3" t="n">
-        <v>913613.3294563961</v>
+        <v>982645.1298984189</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.136962052824744e-06</v>
+        <v>3.700771666414505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.808333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>826419.3555574381</v>
+        <v>888862.8578520147</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>520.5470371661706</v>
+        <v>570.9145355308997</v>
       </c>
       <c r="AB4" t="n">
-        <v>712.2354211652529</v>
+        <v>781.1504544850781</v>
       </c>
       <c r="AC4" t="n">
-        <v>644.2606721979324</v>
+        <v>706.5985514605702</v>
       </c>
       <c r="AD4" t="n">
-        <v>520547.0371661707</v>
+        <v>570914.5355308997</v>
       </c>
       <c r="AE4" t="n">
-        <v>712235.4211652529</v>
+        <v>781150.4544850781</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.396687454866509e-06</v>
+        <v>4.150561782085365e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.745833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>644260.6721979324</v>
+        <v>706598.5514605702</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>515.6934402703658</v>
+        <v>566.0609386350949</v>
       </c>
       <c r="AB5" t="n">
-        <v>705.5945157668301</v>
+        <v>774.5095490866553</v>
       </c>
       <c r="AC5" t="n">
-        <v>638.2535654901656</v>
+        <v>700.5914447528036</v>
       </c>
       <c r="AD5" t="n">
-        <v>515693.4402703659</v>
+        <v>566060.9386350949</v>
       </c>
       <c r="AE5" t="n">
-        <v>705594.5157668301</v>
+        <v>774509.5490866553</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.411929910186798e-06</v>
+        <v>4.176958529141005e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.690277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>638253.5654901656</v>
+        <v>700591.4447528035</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.5134030250555</v>
+        <v>541.0049797426118</v>
       </c>
       <c r="AB2" t="n">
-        <v>677.9832985273861</v>
+        <v>740.2268807390681</v>
       </c>
       <c r="AC2" t="n">
-        <v>613.2775240714675</v>
+        <v>669.5806661562829</v>
       </c>
       <c r="AD2" t="n">
-        <v>495513.4030250555</v>
+        <v>541004.9797426118</v>
       </c>
       <c r="AE2" t="n">
-        <v>677983.298527386</v>
+        <v>740226.880739068</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.321893691940959e-06</v>
+        <v>4.393522512804677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.07361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>613277.5240714675</v>
+        <v>669580.6661562829</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.8053122376639</v>
+        <v>514.3821403012408</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.4401104342701</v>
+        <v>703.8003372986014</v>
       </c>
       <c r="AC3" t="n">
-        <v>580.2219665612718</v>
+        <v>636.6306208967995</v>
       </c>
       <c r="AD3" t="n">
-        <v>468805.3122376639</v>
+        <v>514382.1403012408</v>
       </c>
       <c r="AE3" t="n">
-        <v>641440.1104342701</v>
+        <v>703800.3372986014</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.375613164506172e-06</v>
+        <v>4.495171314776297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.845833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>580221.9665612718</v>
+        <v>636630.6208967995</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>740.2837982501883</v>
+        <v>797.0929907234307</v>
       </c>
       <c r="AB2" t="n">
-        <v>1012.888951782129</v>
+        <v>1090.61779516871</v>
       </c>
       <c r="AC2" t="n">
-        <v>916.2202518226146</v>
+        <v>986.5307634894967</v>
       </c>
       <c r="AD2" t="n">
-        <v>740283.7982501882</v>
+        <v>797092.9907234308</v>
       </c>
       <c r="AE2" t="n">
-        <v>1012888.951782129</v>
+        <v>1090617.79516871</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.948374289229169e-06</v>
+        <v>3.549514817217781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.48472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>916220.2518226146</v>
+        <v>986530.7634894968</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.8287914066827</v>
+        <v>519.8154040311236</v>
       </c>
       <c r="AB3" t="n">
-        <v>659.2594091886725</v>
+        <v>711.2343684325059</v>
       </c>
       <c r="AC3" t="n">
-        <v>596.3406164520968</v>
+        <v>643.3551585330123</v>
       </c>
       <c r="AD3" t="n">
-        <v>481828.7914066828</v>
+        <v>519815.4040311237</v>
       </c>
       <c r="AE3" t="n">
-        <v>659259.4091886726</v>
+        <v>711234.3684325059</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.426365567230074e-06</v>
+        <v>4.420311118084753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.222222222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>596340.6164520968</v>
+        <v>643355.1585330123</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>484.0265419194571</v>
+        <v>522.0131545438981</v>
       </c>
       <c r="AB4" t="n">
-        <v>662.2664683981601</v>
+        <v>714.2414276419934</v>
       </c>
       <c r="AC4" t="n">
-        <v>599.0606861510651</v>
+        <v>646.0752282319803</v>
       </c>
       <c r="AD4" t="n">
-        <v>484026.5419194571</v>
+        <v>522013.154543898</v>
       </c>
       <c r="AE4" t="n">
-        <v>662266.4683981601</v>
+        <v>714241.4276419934</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.428459900433314e-06</v>
+        <v>4.424126538344703e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.21388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>599060.686151065</v>
+        <v>646075.2282319803</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.6370907386283</v>
+        <v>528.3676496864606</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.7876511760854</v>
+        <v>722.9359282365876</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.6773911340441</v>
+        <v>653.9399378926349</v>
       </c>
       <c r="AD2" t="n">
-        <v>475637.0907386283</v>
+        <v>528367.6496864606</v>
       </c>
       <c r="AE2" t="n">
-        <v>650787.6511760855</v>
+        <v>722935.9282365877</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.273663011064079e-06</v>
+        <v>4.455646926400108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.68333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>588677.3911340442</v>
+        <v>653939.9378926349</v>
       </c>
     </row>
     <row r="3">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>479.8767950744865</v>
+        <v>532.6073540223188</v>
       </c>
       <c r="AB3" t="n">
-        <v>656.588601690961</v>
+        <v>728.7368787514633</v>
       </c>
       <c r="AC3" t="n">
-        <v>593.9247070734652</v>
+        <v>659.1872538320561</v>
       </c>
       <c r="AD3" t="n">
-        <v>479876.7950744865</v>
+        <v>532607.3540223187</v>
       </c>
       <c r="AE3" t="n">
-        <v>656588.601690961</v>
+        <v>728736.8787514634</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.273663011064079e-06</v>
+        <v>4.455646926400108e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.68333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>593924.7070734652</v>
+        <v>659187.2538320561</v>
       </c>
     </row>
   </sheetData>
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1798.930944735658</v>
+        <v>1890.426962291232</v>
       </c>
       <c r="AB2" t="n">
-        <v>2461.376681819434</v>
+        <v>2586.56556955838</v>
       </c>
       <c r="AC2" t="n">
-        <v>2226.466345870456</v>
+        <v>2339.707381867305</v>
       </c>
       <c r="AD2" t="n">
-        <v>1798930.944735658</v>
+        <v>1890426.962291232</v>
       </c>
       <c r="AE2" t="n">
-        <v>2461376.681819434</v>
+        <v>2586565.56955838</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.235512987421378e-06</v>
+        <v>2.125676876220355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2226466.345870456</v>
+        <v>2339707.381867305</v>
       </c>
     </row>
     <row r="3">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>726.7965645739279</v>
+        <v>777.5898456779877</v>
       </c>
       <c r="AB3" t="n">
-        <v>994.4351236515142</v>
+        <v>1063.9327316995</v>
       </c>
       <c r="AC3" t="n">
-        <v>899.5276311486749</v>
+        <v>962.3924850250668</v>
       </c>
       <c r="AD3" t="n">
-        <v>726796.5645739279</v>
+        <v>777589.8456779877</v>
       </c>
       <c r="AE3" t="n">
-        <v>994435.1236515142</v>
+        <v>1063932.7316995</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.066766005710691e-06</v>
+        <v>3.555832072689637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.05</v>
       </c>
       <c r="AH3" t="n">
-        <v>899527.6311486749</v>
+        <v>962392.4850250668</v>
       </c>
     </row>
     <row r="4">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>541.5262626614715</v>
+        <v>592.3194542569803</v>
       </c>
       <c r="AB4" t="n">
-        <v>740.9401230260313</v>
+        <v>810.4376086044693</v>
       </c>
       <c r="AC4" t="n">
-        <v>670.2258376004202</v>
+        <v>733.0905806955856</v>
       </c>
       <c r="AD4" t="n">
-        <v>541526.2626614715</v>
+        <v>592319.4542569803</v>
       </c>
       <c r="AE4" t="n">
-        <v>740940.1230260313</v>
+        <v>810437.6086044693</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.364389882356199e-06</v>
+        <v>4.067888359298826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.784722222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>670225.8376004201</v>
+        <v>733090.5806955856</v>
       </c>
     </row>
     <row r="5">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>525.0075122292866</v>
+        <v>575.8007038247953</v>
       </c>
       <c r="AB5" t="n">
-        <v>718.3384399288797</v>
+        <v>787.8359255073176</v>
       </c>
       <c r="AC5" t="n">
-        <v>649.7812274163991</v>
+        <v>712.6459705115648</v>
       </c>
       <c r="AD5" t="n">
-        <v>525007.5122292866</v>
+        <v>575800.7038247953</v>
       </c>
       <c r="AE5" t="n">
-        <v>718338.4399288796</v>
+        <v>787835.9255073176</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.401181577660116e-06</v>
+        <v>4.131187779653529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.651388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>649781.2274163992</v>
+        <v>712645.9705115648</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>493.5031947077773</v>
+        <v>545.0374554047128</v>
       </c>
       <c r="AB2" t="n">
-        <v>675.2328428235541</v>
+        <v>745.7442918402253</v>
       </c>
       <c r="AC2" t="n">
-        <v>610.7895679997204</v>
+        <v>674.5715032856808</v>
       </c>
       <c r="AD2" t="n">
-        <v>493503.1947077773</v>
+        <v>545037.4554047128</v>
       </c>
       <c r="AE2" t="n">
-        <v>675232.8428235541</v>
+        <v>745744.2918402253</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.173433874295817e-06</v>
+        <v>4.356996768974374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>610789.5679997203</v>
+        <v>674571.5032856808</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1102.474762644355</v>
+        <v>1171.003932653967</v>
       </c>
       <c r="AB2" t="n">
-        <v>1508.454608003854</v>
+        <v>1602.219241704613</v>
       </c>
       <c r="AC2" t="n">
-        <v>1364.489817345304</v>
+        <v>1449.305686005153</v>
       </c>
       <c r="AD2" t="n">
-        <v>1102474.762644354</v>
+        <v>1171003.932653967</v>
       </c>
       <c r="AE2" t="n">
-        <v>1508454.608003854</v>
+        <v>1602219.241704613</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.601076675652204e-06</v>
+        <v>2.835625763624277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.48888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1364489.817345304</v>
+        <v>1449305.686005153</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>533.097011230418</v>
+        <v>572.3541077162287</v>
       </c>
       <c r="AB3" t="n">
-        <v>729.4068493457361</v>
+        <v>783.1201406584878</v>
       </c>
       <c r="AC3" t="n">
-        <v>659.793283373121</v>
+        <v>708.3802535500615</v>
       </c>
       <c r="AD3" t="n">
-        <v>533097.011230418</v>
+        <v>572354.1077162287</v>
       </c>
       <c r="AE3" t="n">
-        <v>729406.8493457361</v>
+        <v>783120.1406584878</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.357844683848695e-06</v>
+        <v>4.175918139224875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.158333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>659793.2833731209</v>
+        <v>708380.2535500615</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>491.7528003304462</v>
+        <v>540.7387181974493</v>
       </c>
       <c r="AB4" t="n">
-        <v>672.8378760145397</v>
+        <v>739.8625699463465</v>
       </c>
       <c r="AC4" t="n">
-        <v>608.6231734616014</v>
+        <v>669.2511246743053</v>
       </c>
       <c r="AD4" t="n">
-        <v>491752.8003304462</v>
+        <v>540738.7181974493</v>
       </c>
       <c r="AE4" t="n">
-        <v>672837.8760145397</v>
+        <v>739862.5699463466</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.429680890913988e-06</v>
+        <v>4.303145399863354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>608623.1734616014</v>
+        <v>669251.1246743053</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1412.434600870617</v>
+        <v>1482.450032235947</v>
       </c>
       <c r="AB2" t="n">
-        <v>1932.555333127993</v>
+        <v>2028.353535184869</v>
       </c>
       <c r="AC2" t="n">
-        <v>1748.114964492702</v>
+        <v>1834.770320598891</v>
       </c>
       <c r="AD2" t="n">
-        <v>1412434.600870617</v>
+        <v>1482450.032235947</v>
       </c>
       <c r="AE2" t="n">
-        <v>1932555.333127993</v>
+        <v>2028353.535184869</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.409836304939231e-06</v>
+        <v>2.458631410029597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.00972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1748114.964492702</v>
+        <v>1834770.320598891</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.628897231976</v>
+        <v>670.6398557011042</v>
       </c>
       <c r="AB3" t="n">
-        <v>849.1718374073378</v>
+        <v>917.5990371125718</v>
       </c>
       <c r="AC3" t="n">
-        <v>768.12806906534</v>
+        <v>830.0246728688844</v>
       </c>
       <c r="AD3" t="n">
-        <v>620628.897231976</v>
+        <v>670639.8557011043</v>
       </c>
       <c r="AE3" t="n">
-        <v>849171.8374073377</v>
+        <v>917599.0371125718</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.208753700995135e-06</v>
+        <v>3.851873587919721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.580555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>768128.06906534</v>
+        <v>830024.6728688844</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>509.5389283659843</v>
+        <v>559.4645459805408</v>
       </c>
       <c r="AB4" t="n">
-        <v>697.1736410613527</v>
+        <v>765.4840736443889</v>
       </c>
       <c r="AC4" t="n">
-        <v>630.6363672478072</v>
+        <v>692.4273480194128</v>
       </c>
       <c r="AD4" t="n">
-        <v>509538.9283659843</v>
+        <v>559464.5459805408</v>
       </c>
       <c r="AE4" t="n">
-        <v>697173.6410613527</v>
+        <v>765484.0736443889</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.413358213371771e-06</v>
+        <v>4.208685991601346e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.768055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>630636.3672478072</v>
+        <v>692427.3480194127</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>510.4113007385599</v>
+        <v>560.3369183531165</v>
       </c>
       <c r="AB5" t="n">
-        <v>698.3672594278635</v>
+        <v>766.6776920109</v>
       </c>
       <c r="AC5" t="n">
-        <v>631.7160683526722</v>
+        <v>693.5070491242778</v>
       </c>
       <c r="AD5" t="n">
-        <v>510411.3007385599</v>
+        <v>560336.9183531165</v>
       </c>
       <c r="AE5" t="n">
-        <v>698367.2594278635</v>
+        <v>766677.6920109</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.416405190473433e-06</v>
+        <v>4.213999653607029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.756944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>631716.0683526722</v>
+        <v>693507.0491242779</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2335.43760777616</v>
+        <v>2428.474525199355</v>
       </c>
       <c r="AB2" t="n">
-        <v>3195.44876719513</v>
+        <v>3322.745982112669</v>
       </c>
       <c r="AC2" t="n">
-        <v>2890.479621694419</v>
+        <v>3005.627769082985</v>
       </c>
       <c r="AD2" t="n">
-        <v>2335437.60777616</v>
+        <v>2428474.525199356</v>
       </c>
       <c r="AE2" t="n">
-        <v>3195448.76719513</v>
+        <v>3322745.982112668</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.074793075514268e-06</v>
+        <v>1.827076994981291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.00277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2890479.621694419</v>
+        <v>3005627.769082985</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>829.0389760495615</v>
+        <v>880.8114435233799</v>
       </c>
       <c r="AB3" t="n">
-        <v>1134.327701649327</v>
+        <v>1205.165075687071</v>
       </c>
       <c r="AC3" t="n">
-        <v>1026.069057842843</v>
+        <v>1090.145812323303</v>
       </c>
       <c r="AD3" t="n">
-        <v>829038.9760495615</v>
+        <v>880811.44352338</v>
       </c>
       <c r="AE3" t="n">
-        <v>1134327.701649327</v>
+        <v>1205165.075687071</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.936068632127631e-06</v>
+        <v>3.291188358998997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.55</v>
       </c>
       <c r="AH3" t="n">
-        <v>1026069.057842843</v>
+        <v>1090145.812323303</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>619.604221347023</v>
+        <v>660.9540121509716</v>
       </c>
       <c r="AB4" t="n">
-        <v>847.7698306560353</v>
+        <v>904.3464386580207</v>
       </c>
       <c r="AC4" t="n">
-        <v>766.8598678706529</v>
+        <v>818.0368838106966</v>
       </c>
       <c r="AD4" t="n">
-        <v>619604.221347023</v>
+        <v>660954.0121509716</v>
       </c>
       <c r="AE4" t="n">
-        <v>847769.8306560353</v>
+        <v>904346.4386580207</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.258844771237471e-06</v>
+        <v>3.839886403052073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.041666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>766859.8678706529</v>
+        <v>818036.8838106967</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>542.3695264846717</v>
+        <v>583.8045686346409</v>
       </c>
       <c r="AB5" t="n">
-        <v>742.093913791108</v>
+        <v>798.7871664457426</v>
       </c>
       <c r="AC5" t="n">
-        <v>671.2695121942334</v>
+        <v>722.5520403849896</v>
       </c>
       <c r="AD5" t="n">
-        <v>542369.5264846717</v>
+        <v>583804.5686346409</v>
       </c>
       <c r="AE5" t="n">
-        <v>742093.9137911079</v>
+        <v>798787.1664457426</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.380455644605962e-06</v>
+        <v>4.046616827850203e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.579166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>671269.5121942334</v>
+        <v>722552.0403849896</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>543.4146486469507</v>
+        <v>584.8496907969197</v>
       </c>
       <c r="AB6" t="n">
-        <v>743.5238960410738</v>
+        <v>800.2171486957085</v>
       </c>
       <c r="AC6" t="n">
-        <v>672.5630189452552</v>
+        <v>723.8455471360114</v>
       </c>
       <c r="AD6" t="n">
-        <v>543414.6486469507</v>
+        <v>584849.6907969197</v>
       </c>
       <c r="AE6" t="n">
-        <v>743523.8960410738</v>
+        <v>800217.1486957085</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.383690758528703e-06</v>
+        <v>4.052116307107226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.568055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>672563.0189452552</v>
+        <v>723845.5471360114</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>854.978207812634</v>
+        <v>912.5418346335373</v>
       </c>
       <c r="AB2" t="n">
-        <v>1169.818902905703</v>
+        <v>1248.579996650048</v>
       </c>
       <c r="AC2" t="n">
-        <v>1058.173028663524</v>
+        <v>1129.417274162798</v>
       </c>
       <c r="AD2" t="n">
-        <v>854978.2078126339</v>
+        <v>912541.8346335373</v>
       </c>
       <c r="AE2" t="n">
-        <v>1169818.902905703</v>
+        <v>1248579.996650048</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.822333461544564e-06</v>
+        <v>3.286098468050345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1058173.028663524</v>
+        <v>1129417.274162798</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>488.9246606388172</v>
+        <v>527.3573355919842</v>
       </c>
       <c r="AB3" t="n">
-        <v>668.9682905197355</v>
+        <v>721.5535719206131</v>
       </c>
       <c r="AC3" t="n">
-        <v>605.1228957754239</v>
+        <v>652.6895117233076</v>
       </c>
       <c r="AD3" t="n">
-        <v>488924.6606388172</v>
+        <v>527357.3355919842</v>
       </c>
       <c r="AE3" t="n">
-        <v>668968.2905197355</v>
+        <v>721553.5719206131</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.426225021564045e-06</v>
+        <v>4.375057855629489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.106944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>605122.8957754239</v>
+        <v>652689.5117233077</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.1848327277072</v>
+        <v>527.6175076808743</v>
       </c>
       <c r="AB4" t="n">
-        <v>669.3242694497372</v>
+        <v>721.9095508506148</v>
       </c>
       <c r="AC4" t="n">
-        <v>605.4449005759659</v>
+        <v>653.0115165238495</v>
       </c>
       <c r="AD4" t="n">
-        <v>489184.8327277072</v>
+        <v>527617.5076808743</v>
       </c>
       <c r="AE4" t="n">
-        <v>669324.2694497373</v>
+        <v>721909.5508506148</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.431474869161686e-06</v>
+        <v>4.38452457317167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.0875</v>
       </c>
       <c r="AH4" t="n">
-        <v>605444.9005759659</v>
+        <v>653011.5165238496</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>552.2458286055778</v>
+        <v>598.4191797569384</v>
       </c>
       <c r="AB2" t="n">
-        <v>755.6071060646304</v>
+        <v>818.7835221344088</v>
       </c>
       <c r="AC2" t="n">
-        <v>683.4930243630554</v>
+        <v>740.6399719517908</v>
       </c>
       <c r="AD2" t="n">
-        <v>552245.8286055778</v>
+        <v>598419.1797569385</v>
       </c>
       <c r="AE2" t="n">
-        <v>755607.1060646304</v>
+        <v>818783.5221344088</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.223731999980423e-06</v>
+        <v>4.148773112178664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.35</v>
       </c>
       <c r="AH2" t="n">
-        <v>683493.0243630554</v>
+        <v>740639.9719517909</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>472.0971929782067</v>
+        <v>518.3557954755879</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.9442068910091</v>
+        <v>709.2372676134369</v>
       </c>
       <c r="AC3" t="n">
-        <v>584.2961983737189</v>
+        <v>641.5486582131667</v>
       </c>
       <c r="AD3" t="n">
-        <v>472097.1929782067</v>
+        <v>518355.7954755879</v>
       </c>
       <c r="AE3" t="n">
-        <v>645944.2068910091</v>
+        <v>709237.2676134369</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.401047242545373e-06</v>
+        <v>4.479586677275255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.58611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>584296.1983737189</v>
+        <v>641548.6582131668</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>477.0014058989005</v>
+        <v>521.7502677853435</v>
       </c>
       <c r="AB2" t="n">
-        <v>652.6543673677069</v>
+        <v>713.8817343811937</v>
       </c>
       <c r="AC2" t="n">
-        <v>590.3659505522899</v>
+        <v>645.7498635911588</v>
       </c>
       <c r="AD2" t="n">
-        <v>477001.4058989005</v>
+        <v>521750.2677853435</v>
       </c>
       <c r="AE2" t="n">
-        <v>652654.3673677068</v>
+        <v>713881.7343811938</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.327262052948178e-06</v>
+        <v>4.475411231092465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.23055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>590365.9505522898</v>
+        <v>645749.8635911589</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.4919282669263</v>
+        <v>523.2407901533693</v>
       </c>
       <c r="AB3" t="n">
-        <v>654.6937658288457</v>
+        <v>715.9211328423326</v>
       </c>
       <c r="AC3" t="n">
-        <v>592.2107116866113</v>
+        <v>647.5946247254803</v>
       </c>
       <c r="AD3" t="n">
-        <v>478491.9282669263</v>
+        <v>523240.7901533693</v>
       </c>
       <c r="AE3" t="n">
-        <v>654693.7658288457</v>
+        <v>715921.1328423326</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.332747644116e-06</v>
+        <v>4.485960226333696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.20555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>592210.7116866113</v>
+        <v>647594.6247254803</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.5062745122531</v>
+        <v>581.2354009083999</v>
       </c>
       <c r="AB2" t="n">
-        <v>714.9161361376144</v>
+        <v>795.2719178190193</v>
       </c>
       <c r="AC2" t="n">
-        <v>646.6855434957389</v>
+        <v>719.3722821535183</v>
       </c>
       <c r="AD2" t="n">
-        <v>522506.2745122531</v>
+        <v>581235.4009084</v>
       </c>
       <c r="AE2" t="n">
-        <v>714916.1361376145</v>
+        <v>795271.9178190193</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.007526043769029e-06</v>
+        <v>4.140721855496029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>646685.5434957389</v>
+        <v>719372.2821535183</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1251.582350782836</v>
+        <v>1320.868681228128</v>
       </c>
       <c r="AB2" t="n">
-        <v>1712.47018825745</v>
+        <v>1807.270802269865</v>
       </c>
       <c r="AC2" t="n">
-        <v>1549.034436957162</v>
+        <v>1634.787413421731</v>
       </c>
       <c r="AD2" t="n">
-        <v>1251582.350782836</v>
+        <v>1320868.681228128</v>
       </c>
       <c r="AE2" t="n">
-        <v>1712470.18825745</v>
+        <v>1807270.802269865</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501153133491747e-06</v>
+        <v>2.637466838392858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1549034.436957162</v>
+        <v>1634787.413421731</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>572.1263382484688</v>
+        <v>621.5068758988134</v>
       </c>
       <c r="AB3" t="n">
-        <v>782.8084964242189</v>
+        <v>850.3731265529897</v>
       </c>
       <c r="AC3" t="n">
-        <v>708.0983522041157</v>
+        <v>769.2147088609505</v>
       </c>
       <c r="AD3" t="n">
-        <v>572126.3382484687</v>
+        <v>621506.8758988134</v>
       </c>
       <c r="AE3" t="n">
-        <v>782808.4964242189</v>
+        <v>850373.1265529897</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.289273915548403e-06</v>
+        <v>4.022163962854544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.33472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>708098.3522041157</v>
+        <v>769214.7088609505</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>500.8080855398342</v>
+        <v>550.2738745361995</v>
       </c>
       <c r="AB4" t="n">
-        <v>685.2277167290133</v>
+        <v>752.9089915104335</v>
       </c>
       <c r="AC4" t="n">
-        <v>619.8305451675361</v>
+        <v>681.0524140750832</v>
       </c>
       <c r="AD4" t="n">
-        <v>500808.0855398342</v>
+        <v>550273.8745361995</v>
       </c>
       <c r="AE4" t="n">
-        <v>685227.7167290134</v>
+        <v>752908.9915104335</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.42129414807566e-06</v>
+        <v>4.254118303500411e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.826388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>619830.5451675361</v>
+        <v>681052.4140750832</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>502.9006073147161</v>
+        <v>552.3663963110814</v>
       </c>
       <c r="AB5" t="n">
-        <v>688.0907973369519</v>
+        <v>755.7720721183721</v>
       </c>
       <c r="AC5" t="n">
-        <v>622.420377380612</v>
+        <v>683.6422462881592</v>
       </c>
       <c r="AD5" t="n">
-        <v>502900.6073147161</v>
+        <v>552366.3963110814</v>
       </c>
       <c r="AE5" t="n">
-        <v>688090.7973369519</v>
+        <v>755772.0721183721</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.421755757280301e-06</v>
+        <v>4.254929332663508e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.824999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>622420.377380612</v>
+        <v>683642.2462881592</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2044.580048343423</v>
+        <v>2146.988434358436</v>
       </c>
       <c r="AB2" t="n">
-        <v>2797.484622649172</v>
+        <v>2937.604294334042</v>
       </c>
       <c r="AC2" t="n">
-        <v>2530.496616557862</v>
+        <v>2657.243463436323</v>
       </c>
       <c r="AD2" t="n">
-        <v>2044580.048343423</v>
+        <v>2146988.434358436</v>
       </c>
       <c r="AE2" t="n">
-        <v>2797484.622649172</v>
+        <v>2937604.294334042</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.152828584485431e-06</v>
+        <v>1.971208405491006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.86388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2530496.616557862</v>
+        <v>2657243.463436323</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>778.5723035145115</v>
+        <v>829.7765860305689</v>
       </c>
       <c r="AB3" t="n">
-        <v>1065.276973854413</v>
+        <v>1135.336932166397</v>
       </c>
       <c r="AC3" t="n">
-        <v>963.6084345953705</v>
+        <v>1026.981968815827</v>
       </c>
       <c r="AD3" t="n">
-        <v>778572.3035145116</v>
+        <v>829776.5860305688</v>
       </c>
       <c r="AE3" t="n">
-        <v>1065276.973854413</v>
+        <v>1135336.932166397</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.99843391147198e-06</v>
+        <v>3.417099278354698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.30416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>963608.4345953704</v>
+        <v>1026981.968815827</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>574.1651661966007</v>
+        <v>625.3693592041068</v>
       </c>
       <c r="AB4" t="n">
-        <v>785.598110769594</v>
+        <v>855.6579466120293</v>
       </c>
       <c r="AC4" t="n">
-        <v>710.6217296716167</v>
+        <v>773.995153110847</v>
       </c>
       <c r="AD4" t="n">
-        <v>574165.1661966007</v>
+        <v>625369.3592041067</v>
       </c>
       <c r="AE4" t="n">
-        <v>785598.110769594</v>
+        <v>855657.9466120292</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.313960500254616e-06</v>
+        <v>3.956614582134102e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.899999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>710621.7296716167</v>
+        <v>773995.153110847</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>532.1520071276843</v>
+        <v>583.3562001351904</v>
       </c>
       <c r="AB5" t="n">
-        <v>728.1138530417373</v>
+        <v>798.1736888841726</v>
       </c>
       <c r="AC5" t="n">
-        <v>658.6236888216441</v>
+        <v>721.9971122608747</v>
       </c>
       <c r="AD5" t="n">
-        <v>532152.0071276843</v>
+        <v>583356.2001351904</v>
       </c>
       <c r="AE5" t="n">
-        <v>728113.8530417373</v>
+        <v>798173.6888841726</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.393880063860744e-06</v>
+        <v>4.093268129472965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.602777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>658623.6888216442</v>
+        <v>721997.1122608747</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>534.5411432269474</v>
+        <v>585.7453362344536</v>
       </c>
       <c r="AB6" t="n">
-        <v>731.3827744539948</v>
+        <v>801.4426102964303</v>
       </c>
       <c r="AC6" t="n">
-        <v>661.5806289622759</v>
+        <v>724.9540524015064</v>
       </c>
       <c r="AD6" t="n">
-        <v>534541.1432269474</v>
+        <v>585745.3362344536</v>
       </c>
       <c r="AE6" t="n">
-        <v>731382.7744539948</v>
+        <v>801442.6102964303</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.393880063860744e-06</v>
+        <v>4.093268129472965e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.602777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>661580.6289622759</v>
+        <v>724954.0524015063</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>597.8382482034158</v>
+        <v>662.7710837368015</v>
       </c>
       <c r="AB2" t="n">
-        <v>817.9886659539877</v>
+        <v>906.832636165294</v>
       </c>
       <c r="AC2" t="n">
-        <v>739.9209757296416</v>
+        <v>820.2858021172763</v>
       </c>
       <c r="AD2" t="n">
-        <v>597838.2482034158</v>
+        <v>662771.0837368015</v>
       </c>
       <c r="AE2" t="n">
-        <v>817988.6659539877</v>
+        <v>906832.6361652941</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708611269100411e-06</v>
+        <v>3.662340919735003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.48611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>739920.9757296415</v>
+        <v>820285.8021172762</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>634.9188818987276</v>
+        <v>691.1030048946322</v>
       </c>
       <c r="AB2" t="n">
-        <v>868.7240248580169</v>
+        <v>945.597620609585</v>
       </c>
       <c r="AC2" t="n">
-        <v>785.8142231873937</v>
+        <v>855.3511108532014</v>
       </c>
       <c r="AD2" t="n">
-        <v>634918.8818987276</v>
+        <v>691103.0048946323</v>
       </c>
       <c r="AE2" t="n">
-        <v>868724.024858017</v>
+        <v>945597.620609585</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.085664338807144e-06</v>
+        <v>3.84269583512451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.87361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>785814.2231873937</v>
+        <v>855351.1108532014</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>475.7399744151017</v>
+        <v>522.4606020899065</v>
       </c>
       <c r="AB3" t="n">
-        <v>650.9284211611438</v>
+        <v>714.8536451144347</v>
       </c>
       <c r="AC3" t="n">
-        <v>588.8047262293005</v>
+        <v>646.6290165281046</v>
       </c>
       <c r="AD3" t="n">
-        <v>475739.9744151017</v>
+        <v>522460.6020899065</v>
       </c>
       <c r="AE3" t="n">
-        <v>650928.4211611438</v>
+        <v>714853.6451144347</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.41846921842576e-06</v>
+        <v>4.455866373175227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.377777777777776</v>
       </c>
       <c r="AH3" t="n">
-        <v>588804.7262293005</v>
+        <v>646629.0165281045</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>967.056318335844</v>
+        <v>1034.967327167589</v>
       </c>
       <c r="AB2" t="n">
-        <v>1323.169118260828</v>
+        <v>1416.087956566682</v>
       </c>
       <c r="AC2" t="n">
-        <v>1196.887714693534</v>
+        <v>1280.938509483887</v>
       </c>
       <c r="AD2" t="n">
-        <v>967056.318335844</v>
+        <v>1034967.327167589</v>
       </c>
       <c r="AE2" t="n">
-        <v>1323169.118260828</v>
+        <v>1416087.956566682</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708381333663929e-06</v>
+        <v>3.051898577858314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1196887.714693534</v>
+        <v>1280938.509483887</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.5971234185818</v>
+        <v>542.4522698907423</v>
       </c>
       <c r="AB3" t="n">
-        <v>689.0438013983828</v>
+        <v>742.2071269696753</v>
       </c>
       <c r="AC3" t="n">
-        <v>623.2824280719697</v>
+        <v>671.3719204659338</v>
       </c>
       <c r="AD3" t="n">
-        <v>503597.1234185818</v>
+        <v>542452.2698907423</v>
       </c>
       <c r="AE3" t="n">
-        <v>689043.8013983828</v>
+        <v>742207.1269696753</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406921575286315e-06</v>
+        <v>4.299789741250959e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.072222222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>623282.4280719697</v>
+        <v>671371.9204659339</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>486.3858795098994</v>
+        <v>534.8693598598396</v>
       </c>
       <c r="AB4" t="n">
-        <v>665.4946181760315</v>
+        <v>731.8318549310139</v>
       </c>
       <c r="AC4" t="n">
-        <v>601.9807458448732</v>
+        <v>661.9868498288566</v>
       </c>
       <c r="AD4" t="n">
-        <v>486385.8795098994</v>
+        <v>534869.3598598397</v>
       </c>
       <c r="AE4" t="n">
-        <v>665494.6181760315</v>
+        <v>731831.8549310139</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.430504973045342e-06</v>
+        <v>4.341919760271643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.984722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>601980.7458448733</v>
+        <v>661986.8498288566</v>
       </c>
     </row>
   </sheetData>
